--- a/biology/Zoologie/Brachaucheninae/Brachaucheninae.xlsx
+++ b/biology/Zoologie/Brachaucheninae/Brachaucheninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Brachaucheninae sont une sous-famille fossile de plésiosaures de la famille des pliosauridés, ayant vécu au Crétacé inférieur dans ce qui sont aujourd'hui l'Europe, l'Amérique du Nord et du Sud et l'Australie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa publication de 1925, Samuel W. Williston décrit ainsi cette famille : « Crâne long, cou très court, mais avec treize vertèbres, plus courtes que le crâne. Côtes cervicales à tête unique. Ptérygoïdes n'atteignant pas les vomers. Pagaies imparfaitement connues »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa publication de 1925, Samuel W. Williston décrit ainsi cette famille : « Crâne long, cou très court, mais avec treize vertèbres, plus courtes que le crâne. Côtes cervicales à tête unique. Ptérygoïdes n'atteignant pas les vomers. Pagaies imparfaitement connues ».
 </t>
         </is>
       </c>
@@ -542,16 +556,123 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La sous-famille des Brachaucheninae est décrite en 1925 par le paléontologue américain Samuel Wendell Williston (1851-1918)[2],[1]. 
-Fossiles
-Selon Paleobiology Database en 2024, le nombre de collections référencées est de dix-neuf[2].
-Ces fossiles sont du Hauterivien supérieur du Crétacé inférieur au Turonien du Crétacé supérieur, c'est-à-dire datés de 136,4 à 89,8 Ma avant notre ère[2].
-Genre type
-Cette sous-famille a pour genre type †Brachauchenius Williston, 1905[2].
-Liste des genres
-Selon Paleobiology Database                   (30 avril 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Brachaucheninae est décrite en 1925 par le paléontologue américain Samuel Wendell Williston (1851-1918),. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brachaucheninae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brachaucheninae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2024, le nombre de collections référencées est de dix-neuf.
+Ces fossiles sont du Hauterivien supérieur du Crétacé inférieur au Turonien du Crétacé supérieur, c'est-à-dire datés de 136,4 à 89,8 Ma avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brachaucheninae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brachaucheninae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genre type</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-famille a pour genre type †Brachauchenius Williston, 1905.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brachaucheninae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brachaucheninae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (30 avril 2024) :
 †Brachauchenius Williston, 1903 - genre type
 †Discosaurus Leidy, 1851
 †Kronosaurus Longman, 1924
@@ -561,62 +682,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Brachaucheninae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brachaucheninae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme simplifié du clade Thalassophonea ci-dessous est basée d'après Madzia et al. (2018)[3] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme simplifié du clade Thalassophonea ci-dessous est basée d'après Madzia et al. (2018) : 
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Brachaucheninae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brachaucheninae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Samuel Wendell Williston, William King Gregory, The Osteology of the Reptiles,  (œuvre académique), Harvard University Press, Cambridge, 1925, [lire en ligne]</t>
         </is>
